--- a/tests/testing_files/tagging_ignore_test.xlsx
+++ b/tests/testing_files/tagging_ignore_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF13A91-B9FE-499C-9994-942A702CA01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A5A5F-F1B6-41FD-9CDD-681B157592C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2175" windowWidth="23640" windowHeight="12015" activeTab="1" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23640" windowHeight="12015" xr2:uid="{15FD60AA-0CC8-9F4F-B5F4-2B27D5230080}"/>
   </bookViews>
   <sheets>
     <sheet name="#convert" sheetId="6" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>IC-FTMS_measurement</t>
   </si>
   <si>
-    <t>#unique=false</t>
-  </si>
-  <si>
     <t>#measurement.id.regex</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>#measurement.asdf</t>
+  </si>
+  <si>
+    <t>#match=all</t>
   </si>
 </sst>
 </file>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8067F3B6-BC85-4627-B925-1366E7FE6A62}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,10 +654,10 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FFFD15-87D9-4AFC-82C0-CA4CE918806E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -788,13 +788,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
